--- a/data/road.xlsx
+++ b/data/road.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="highway_map" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/ma/Documents/udacity/carnd/CarND-Path-Planning-Project/data/highway_map.csv" tab="0" space="1" consecutive="1">
+    <textPr fileType="mac" sourceFile="/Users/ma/Documents/udacity/carnd/CarND-Path-Planning-Project/data/highway_map.csv" tab="0" space="1" consecutive="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -173,7 +173,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Road</c:v>
+            <c:v>Road Center</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1309,7 +1309,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Vector</c:v>
+            <c:v>Right Margin</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2449,18 +2449,44 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2083661344"/>
-        <c:axId val="-2088553264"/>
+        <c:axId val="-2127312720"/>
+        <c:axId val="-2127313584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2083661344"/>
+        <c:axId val="-2127312720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2500.0"/>
+          <c:max val="2400.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2528,16 +2554,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088553264"/>
+        <c:crossAx val="-2127313584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088553264"/>
+        <c:axId val="-2127313584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3500.0"/>
-          <c:min val="1000.0"/>
+          <c:max val="3200.0"/>
+          <c:min val="800.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2556,6 +2582,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y Coordinate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2623,7 +2674,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083661344"/>
+        <c:crossAx val="-2127312720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3567,7 +3618,7 @@
   <dimension ref="A1:I181"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
